--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -74781,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -70851,7 +70851,9 @@
       <c r="P1328" t="n">
         <v>0</v>
       </c>
-      <c r="Q1328" t="inlineStr"/>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -74893,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74897,6 +74897,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>7790.2001953125</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>7841</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>7400.75</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>7436.2998046875</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>7436.2998046875</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>1242270</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>7424.10009765625</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>7934.2998046875</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>7351.7001953125</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>7704.5</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>7704.5</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>2710554</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74949,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -75003,7 +75005,333 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>7725.60009765625</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>7968.7001953125</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>7651.10009765625</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>7885.5498046875</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>7885.5498046875</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>1520034</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>7934.25</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>7934.7998046875</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>7613.5498046875</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>7613.5498046875</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>1384435</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>7613.5498046875</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>7687.89990234375</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>6825</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>6850.2001953125</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>6850.2001953125</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>2138030</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>6690.0498046875</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>7104.75</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>6635</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>6917.2998046875</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>6917.2998046875</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>2159469</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>6967.5</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>7180</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>6800.0498046875</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>6876.5</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>6876.5</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>2215056</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>6677.39990234375</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>6915.25</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>6565.7001953125</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>6889.5</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>6889.5</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>2314143</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIEMENS.NS.xlsx
+++ b/stock_historical_data/1wk/SIEMENS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1337"/>
+  <dimension ref="A1:R1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -75061,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75115,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75169,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75223,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75277,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75331,7 +75341,1725 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>6785.990274178402</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>7241.799253256488</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>6751.062383061307</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>7173.8896484375</v>
+      </c>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="n">
+        <v>2285231</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>7229.075651313439</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>7229.075651313439</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>6989.969186374301</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>7007.6826171875</v>
+      </c>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="n">
+        <v>848523</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>7051.043541104728</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>7083.975554470959</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>6791.22981698609</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>6878.89892578125</v>
+      </c>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="n">
+        <v>1604541</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>6913.477377124296</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>6930.691838494206</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>6587.400550885566</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>6600.72314453125</v>
+      </c>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="n">
+        <v>1318445</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>6596.381831753428</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>6736.093398537918</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>6489.352792198881</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>6696.42529296875</v>
+      </c>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="n">
+        <v>1095472</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>6716.134541877813</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>6847.563402339973</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>6491.598097312803</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>6818.6728515625</v>
+      </c>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="n">
+        <v>1233872</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>6857.84210428384</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>7308.910880642439</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>6826.905971391989</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>7280.17041015625</v>
+      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="n">
+        <v>1943223</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>7279.47165447488</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>7534.445265787284</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>7164.309502436975</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>7231.919921875</v>
+      </c>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="n">
+        <v>1368564</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>7290.798158150141</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>7763.921487067042</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>6940.92038731284</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>7733.93310546875</v>
+      </c>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="n">
+        <v>1560426</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>7763.97121399622</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>8113.150233222051</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>7549.414168879358</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>7786.923828125</v>
+      </c>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="n">
+        <v>2148543</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>7823.847922312524</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>7857.229203064648</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>6642.436809190415</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>6762.4892578125</v>
+      </c>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="n">
+        <v>1945683</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>6782.447797985398</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>6998.351672733502</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>6656.258121888955</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>6934.783203125</v>
+      </c>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="n">
+        <v>910181</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>6992.464125383617</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>7212.509846192524</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>6769.225289653764</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>7159.5693359375</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>1325226</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>7150.288224478091</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>7165.207619096491</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>6572.680874829284</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>6722.970703125</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>909609</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>6810.938941246492</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>6960.629906988173</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>6537.952711632358</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>6835.28857421875</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>928821</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>6967.615420358045</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>7617.274205613428</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>6957.037161422641</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>7545.27294921875</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>4411307</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>7559.393576589887</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>7930.228083689931</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>7469.628701519482</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>7771.5556640625</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>1960486</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>7771.555826415849</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>7943.600544779895</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>7721.059976754027</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>7868.60546875</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>1057027</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>7888.963535347805</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>8019.394460983699</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>6807.745473529929</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>6854.74853515625</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>2572570</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>6845.91645873274</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>6895.563961814894</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>6508.812602564423</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>6532.513671875</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>2248577</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>6566.443514230165</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>6726.113873238802</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>6377.084447843361</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>6596.08251953125</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>2560792</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>6615.143108026946</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>6619.783917886802</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>6054.500726967046</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>6092.22265625</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>1854388</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>6066.525709037008</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>6197.206119954868</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>5756.9650773426</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>6170.51123046875</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>1669459</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>6177.246929110736</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>6203.442847024979</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>5768.091639783531</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>5867.58642578125</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>1021098</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>5847.926994764712</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>6133.337766181556</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>5588.462657113035</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>5736.4072265625</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>1926325</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>5752</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>5182.35009765625</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>5505.5</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>4205416</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>5505.0498046875</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>5548.5</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>4946.64990234375</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>4990.85009765625</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>3059471</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>4946.9501953125</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>5059.4501953125</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>4752.64990234375</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>4921.35009765625</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>2872418</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>4896.89990234375</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>4932.60009765625</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>4581</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>4623.5</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>1766245</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>4629.9501953125</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>5268.25</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>4566</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>5106.10009765625</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>3227326</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>5106.10009765625</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>5142.2998046875</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>4810.5498046875</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>4927.89990234375</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>1508129</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>4975</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>4888.5498046875</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>5200.64990234375</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>1816549</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>5520</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>5108</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>5275.35009765625</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>4705859</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
